--- a/AccApi/Commercial Conditions-Paint Works -External-CITE MINISTERIELLE.xlsx
+++ b/AccApi/Commercial Conditions-Paint Works -External-CITE MINISTERIELLE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Project :CITE MINISTERIELLE</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Advance payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining payment </t>
+  </si>
+  <si>
+    <t>Expected number of containers 40'HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information about the availability and / or time for fabrication </t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -139,6 +148,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>

--- a/AccApi/Commercial Conditions-Paint Works -External-CITE MINISTERIELLE.xlsx
+++ b/AccApi/Commercial Conditions-Paint Works -External-CITE MINISTERIELLE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Project :CITE MINISTERIELLE</t>
   </si>
@@ -29,22 +29,7 @@
     <t>Commercial Conditions</t>
   </si>
   <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>Advance payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining payment </t>
-  </si>
-  <si>
-    <t>Expected number of containers 40'HC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information about the availability and / or time for fabrication </t>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -100,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -138,31 +123,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
